--- a/MIDITeensy4.0/MIDITeensy4.0_bom.xlsx
+++ b/MIDITeensy4.0/MIDITeensy4.0_bom.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aokudrya/Documents/GitHub/Midi-boards/MIDITeensy4.0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20921F69-2670-C24E-AF83-348ADAE622F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EFABE3C-CBD7-1547-9F9C-BF2A7C864375}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="460" windowWidth="28040" windowHeight="16440" xr2:uid="{71D61E79-0498-904A-B799-3403509F1DD9}"/>
   </bookViews>
@@ -498,6 +498,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -510,9 +513,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -832,8 +832,8 @@
   </sheetPr>
   <dimension ref="A2:W95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -863,13 +863,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" ht="31" x14ac:dyDescent="0.35">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="16"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="19"/>
     </row>
     <row r="4" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -1046,7 +1046,7 @@
         <v>9</v>
       </c>
       <c r="E22" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.2">
@@ -1141,20 +1141,20 @@
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A30" s="20"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="22"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="16"/>
     </row>
     <row r="31" spans="1:23" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="17" t="s">
+      <c r="A31" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="19"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="22"/>
       <c r="S31">
         <v>24</v>
       </c>
@@ -1178,13 +1178,13 @@
       <c r="E32" s="9"/>
     </row>
     <row r="33" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="17" t="s">
+      <c r="A33" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="19"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="22"/>
       <c r="S33">
         <v>24</v>
       </c>
@@ -1202,13 +1202,13 @@
       </c>
     </row>
     <row r="34" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="17" t="s">
+      <c r="A34" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="19"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="22"/>
       <c r="S34">
         <v>24</v>
       </c>
@@ -1226,13 +1226,13 @@
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A35" s="17" t="s">
+      <c r="A35" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="19"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="22"/>
       <c r="S35">
         <v>25</v>
       </c>

--- a/MIDITeensy4.0/MIDITeensy4.0_bom.xlsx
+++ b/MIDITeensy4.0/MIDITeensy4.0_bom.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aokudrya/Documents/GitHub/Midi-boards/MIDITeensy4.0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EFABE3C-CBD7-1547-9F9C-BF2A7C864375}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD38E58F-1D0B-B342-9241-8AE28B3D0541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="460" windowWidth="28040" windowHeight="16440" xr2:uid="{71D61E79-0498-904A-B799-3403509F1DD9}"/>
+    <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="16440" xr2:uid="{71D61E79-0498-904A-B799-3403509F1DD9}"/>
   </bookViews>
   <sheets>
     <sheet name="MIDITeensy3" sheetId="1" r:id="rId1"/>
@@ -217,9 +217,6 @@
     <t>ICs:</t>
   </si>
   <si>
-    <t>Programmed Microcontroller</t>
-  </si>
-  <si>
     <t>Optocoupler</t>
   </si>
   <si>
@@ -277,9 +274,6 @@
     <t>Teensy4.0 MIDI Breakout board</t>
   </si>
   <si>
-    <t>Teensy4.0</t>
-  </si>
-  <si>
     <t>U6</t>
   </si>
   <si>
@@ -308,6 +302,12 @@
   </si>
   <si>
     <t>* Insert 6N138 and Teensy board after all.</t>
+  </si>
+  <si>
+    <t>Programmed Microcontroller  (not included)</t>
+  </si>
+  <si>
+    <t>Teensy4.0 at PJRC.COM</t>
   </si>
 </sst>
 </file>
@@ -833,7 +833,7 @@
   <dimension ref="A2:W95"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -864,7 +864,7 @@
   <sheetData>
     <row r="2" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -901,7 +901,7 @@
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3">
@@ -920,13 +920,13 @@
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="E10" s="3">
         <v>1</v>
@@ -935,10 +935,10 @@
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>5</v>
@@ -949,7 +949,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -959,10 +959,10 @@
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D14" s="4">
         <v>104</v>
@@ -973,7 +973,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -983,13 +983,13 @@
     <row r="17" spans="1:23" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E17" s="3">
         <v>10</v>
@@ -998,13 +998,13 @@
     <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E18" s="3">
         <v>5</v>
@@ -1013,13 +1013,13 @@
     <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E19" s="3">
         <v>5</v>
@@ -1027,7 +1027,7 @@
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1037,7 +1037,7 @@
     <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>8</v>
@@ -1051,7 +1051,7 @@
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1061,13 +1061,13 @@
     <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C25" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>74</v>
       </c>
       <c r="E25" s="3">
         <v>10</v>
@@ -1077,10 +1077,10 @@
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E26" s="3">
         <v>2</v>
@@ -1090,10 +1090,10 @@
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E27" s="3">
         <v>1</v>
@@ -1118,7 +1118,7 @@
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="31" spans="1:23" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B31" s="21"/>
       <c r="C31" s="21"/>
@@ -1173,13 +1173,13 @@
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E32" s="9"/>
     </row>
     <row r="33" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B33" s="21"/>
       <c r="C33" s="21"/>
@@ -1203,7 +1203,7 @@
     </row>
     <row r="34" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B34" s="21"/>
       <c r="C34" s="21"/>
@@ -1227,7 +1227,7 @@
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" s="20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B35" s="21"/>
       <c r="C35" s="21"/>
